--- a/data/2024/ssg/14,1_DE-1+DE-1a.xlsx
+++ b/data/2024/ssg/14,1_DE-1+DE-1a.xlsx
@@ -133,10 +133,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5;12;16;17;18;210;24;30;31;155;22;39;185</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5;12;16;17;18;210;23;24;30;31;155;22;39;185</t>
   </si>
   <si>
     <t>960646-4</t>
@@ -169,487 +169,487 @@
     <t>24.1973 - 41.1990,1; 1=41.1990,2 -</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34/30;43;89</t>
+  </si>
+  <si>
+    <t>766339-0</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Assoc.</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>0290-9057</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>1.1979 -    ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>769887-2</t>
+  </si>
+  <si>
+    <t>Kart og plan</t>
+  </si>
+  <si>
+    <t>Univ.-Forl.</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>0047-3278</t>
+  </si>
+  <si>
+    <t>2258541-2</t>
+  </si>
+  <si>
+    <t>30=62.1970-årgang 114, 1/2 (2021)</t>
+  </si>
+  <si>
+    <t>1097165-8</t>
+  </si>
+  <si>
+    <t>Atlanten</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>1.1904/06(1906) - 5.1918/19(1919)[?]</t>
+  </si>
+  <si>
+    <t>417433-1</t>
+  </si>
+  <si>
+    <t>Cartography</t>
+  </si>
+  <si>
+    <t>Mapping Sciences Institute</t>
+  </si>
+  <si>
+    <t>East Perth</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>0069-0805</t>
+  </si>
+  <si>
+    <t>2163057-4</t>
+  </si>
+  <si>
+    <t>1.1954/56 - 32.2003</t>
+  </si>
+  <si>
+    <t>417437-9</t>
+  </si>
+  <si>
+    <t>The cartographic journal</t>
+  </si>
+  <si>
+    <t>Taylor and Francis;[Verlag nicht ermittelbar];Maney</t>
+  </si>
+  <si>
+    <t>London;Edinburgh;Leeds</t>
+  </si>
+  <si>
+    <t>0008-7041</t>
+  </si>
+  <si>
+    <t>1.1964 -</t>
+  </si>
+  <si>
+    <t>18;385;185</t>
+  </si>
+  <si>
+    <t>1107042-0</t>
+  </si>
+  <si>
+    <t>Bulletin</t>
+  </si>
+  <si>
+    <t>Paris [u.a.]</t>
+  </si>
+  <si>
+    <t>0414-0575</t>
+  </si>
+  <si>
+    <t>28,2;13;14,1;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>9.1969 -</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>791641-3</t>
+  </si>
+  <si>
+    <t>Ce hui xue bao</t>
+  </si>
+  <si>
+    <t>Ce hui chu ban she</t>
+  </si>
+  <si>
+    <t>Bei jing</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>1001-1595</t>
+  </si>
+  <si>
+    <t>FID-ASIEN-DE-1a;FID-KARTEN-DE-1a;6,25;14,1</t>
+  </si>
+  <si>
+    <t>881426-0</t>
+  </si>
+  <si>
+    <t>5.1962 - 9.1966,2[?]; 10.1981 -</t>
+  </si>
+  <si>
+    <t>421781-0</t>
+  </si>
+  <si>
+    <t>Polski przegla̜d kartograficzny</t>
+  </si>
+  <si>
+    <t>Państw. Przedsie̜biorstwo Wyd. Kartograficznych</t>
+  </si>
+  <si>
+    <t>Warszawa</t>
+  </si>
+  <si>
+    <t>pol;eng;rus</t>
+  </si>
+  <si>
+    <t>0324-8321</t>
+  </si>
+  <si>
+    <t>2872498-7</t>
+  </si>
+  <si>
+    <t>1.1969-tom 47 (2015)</t>
+  </si>
+  <si>
+    <t>430639-9</t>
+  </si>
+  <si>
+    <t>Geodezija, kartografija, zemeustrojstvo</t>
+  </si>
+  <si>
+    <t>Sofija</t>
+  </si>
+  <si>
+    <t>bul</t>
+  </si>
+  <si>
+    <t>0324-1610</t>
+  </si>
+  <si>
+    <t>1.1961 -</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>48084-8</t>
+  </si>
+  <si>
+    <t>Indian cartographer</t>
+  </si>
+  <si>
+    <t>INCA</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>1.1980 - 20.2000; 22.2002 -</t>
+  </si>
+  <si>
+    <t>433193-X</t>
+  </si>
+  <si>
+    <t>Bollettino della Associazione Italiana di Cartografia</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>0044-9733</t>
+  </si>
+  <si>
+    <t>910;550</t>
+  </si>
+  <si>
+    <t>Nr. 1.1964 - 92.1994; Anno 32.1985 - 50.2013 = Nr. 93-149; 150.2014 - 153.2015; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>438314-X</t>
+  </si>
+  <si>
+    <t>The Globe</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>0311-3930</t>
+  </si>
+  <si>
+    <t>Nr. 1.1974 -</t>
+  </si>
+  <si>
+    <t>56440-0</t>
+  </si>
+  <si>
+    <t>Geocarto international</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>1010-6049</t>
+  </si>
+  <si>
+    <t>14,1;14;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1986 -</t>
+  </si>
+  <si>
+    <t>1132110-6</t>
+  </si>
+  <si>
+    <t>Cartographic perspectives</t>
+  </si>
+  <si>
+    <t>NACIS</t>
+  </si>
+  <si>
+    <t>Milwaukee, Wis.</t>
+  </si>
+  <si>
+    <t>1048-9053</t>
+  </si>
+  <si>
+    <t>7,26;14,1;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>Nr. 1.1989 - 82.2015</t>
+  </si>
+  <si>
+    <t>447920-8</t>
+  </si>
+  <si>
+    <t>Indian surveyor</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>0970-3470</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>1059309-3</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 12.1971 - 33/34.1990/91; 1991,Juli; 40.1992 - 67.2013 = Nr. 69-112; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1148989-3</t>
+  </si>
+  <si>
+    <t>Rivista di topografia antica</t>
+  </si>
+  <si>
+    <t>Congedo</t>
+  </si>
+  <si>
+    <t>Galatina</t>
+  </si>
+  <si>
+    <t>ita;eng</t>
+  </si>
+  <si>
+    <t>1121-5275</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>6,14;6,12;14,1;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>1.1991(1992) -</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>12;16;19;21;24;824;F 36</t>
+  </si>
+  <si>
+    <t>128428-9</t>
+  </si>
+  <si>
+    <t>b;ra</t>
+  </si>
+  <si>
+    <t>Bibliographia cartographica</t>
+  </si>
+  <si>
+    <t>de @Gruyter Saur</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>0340-0409</t>
+  </si>
+  <si>
+    <t>550;914.3</t>
+  </si>
+  <si>
+    <t>2463569-8</t>
+  </si>
+  <si>
+    <t>1080-7</t>
+  </si>
+  <si>
+    <t>1.1974(1975) - 31.2004(2005); 32.2005(2009) - 34.2007(2012)</t>
+  </si>
+  <si>
+    <t>880137-X</t>
+  </si>
+  <si>
+    <t>Geodezja i kartografia</t>
+  </si>
+  <si>
+    <t>Wydawn. CBK PAN</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>0016-7134</t>
+  </si>
+  <si>
+    <t>2558225-2</t>
+  </si>
+  <si>
+    <t>1.1952 - 58.2009,1</t>
+  </si>
+  <si>
+    <t>880183-6</t>
+  </si>
+  <si>
+    <t>b;sm</t>
+  </si>
+  <si>
+    <t>Kartografičeskaja letopisʹ</t>
+  </si>
+  <si>
+    <t>Izdat. Vsesojuznoj Knižnoj Palaty</t>
+  </si>
+  <si>
+    <t>Moskva</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>0130-2086</t>
+  </si>
+  <si>
+    <t>010;550</t>
+  </si>
+  <si>
+    <t>2852736-7</t>
+  </si>
+  <si>
+    <t>1 (1931)- 8 (1938) ; 1939-2014</t>
+  </si>
+  <si>
+    <t>881125-8</t>
+  </si>
+  <si>
+    <t>Geodézia és kartográfia</t>
+  </si>
+  <si>
+    <t>Kartográfiai Vállalat</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>0016-7118</t>
+  </si>
+  <si>
+    <t>881124-6</t>
+  </si>
+  <si>
+    <t>7.1955 -</t>
+  </si>
+  <si>
+    <t>1174761-4</t>
+  </si>
+  <si>
+    <t>Geomatica</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>1195-1036</t>
+  </si>
+  <si>
+    <t>246804-9</t>
+  </si>
+  <si>
+    <t>47.1993 -</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>34/30;43</t>
-  </si>
-  <si>
-    <t>766339-0</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>Assoc.</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>0290-9057</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>1.1979 -    ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>769887-2</t>
-  </si>
-  <si>
-    <t>Kart og plan</t>
-  </si>
-  <si>
-    <t>Univ.-Forl.</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>0047-3278</t>
-  </si>
-  <si>
-    <t>2258541-2</t>
-  </si>
-  <si>
-    <t>30=62.1970-årgang 114, 1/2 (2021)</t>
-  </si>
-  <si>
-    <t>1097165-8</t>
-  </si>
-  <si>
-    <t>Atlanten</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>København</t>
-  </si>
-  <si>
-    <t>dan</t>
-  </si>
-  <si>
-    <t>1.1904/06(1906) - 5.1918/19(1919)[?]</t>
-  </si>
-  <si>
-    <t>417433-1</t>
-  </si>
-  <si>
-    <t>Cartography</t>
-  </si>
-  <si>
-    <t>Mapping Sciences Institute</t>
-  </si>
-  <si>
-    <t>East Perth</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>0069-0805</t>
-  </si>
-  <si>
-    <t>2163057-4</t>
-  </si>
-  <si>
-    <t>1.1954/56 - 32.2003</t>
-  </si>
-  <si>
-    <t>417437-9</t>
-  </si>
-  <si>
-    <t>The cartographic journal</t>
-  </si>
-  <si>
-    <t>Taylor and Francis;[Verlag nicht ermittelbar];Maney</t>
-  </si>
-  <si>
-    <t>London;Edinburgh;Leeds</t>
-  </si>
-  <si>
-    <t>0008-7041</t>
-  </si>
-  <si>
-    <t>1.1964 -</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>18;385;185</t>
-  </si>
-  <si>
-    <t>1107042-0</t>
-  </si>
-  <si>
-    <t>Bulletin</t>
-  </si>
-  <si>
-    <t>Paris [u.a.]</t>
-  </si>
-  <si>
-    <t>0414-0575</t>
-  </si>
-  <si>
-    <t>28,2;13;14,1;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>9.1969 -</t>
-  </si>
-  <si>
-    <t>791641-3</t>
-  </si>
-  <si>
-    <t>Ce hui xue bao</t>
-  </si>
-  <si>
-    <t>Ce hui chu ban she</t>
-  </si>
-  <si>
-    <t>Bei jing</t>
-  </si>
-  <si>
-    <t>chi</t>
-  </si>
-  <si>
-    <t>1001-1595</t>
-  </si>
-  <si>
-    <t>FID-ASIEN-DE-1a;FID-KARTEN-DE-1a;6,25;14,1</t>
-  </si>
-  <si>
-    <t>881426-0</t>
-  </si>
-  <si>
-    <t>5.1962 - 9.1966,2[?]; 10.1981 -</t>
-  </si>
-  <si>
-    <t>421781-0</t>
-  </si>
-  <si>
-    <t>Polski przegla̜d kartograficzny</t>
-  </si>
-  <si>
-    <t>Państw. Przedsie̜biorstwo Wyd. Kartograficznych</t>
-  </si>
-  <si>
-    <t>Warszawa</t>
-  </si>
-  <si>
-    <t>pol;eng;rus</t>
-  </si>
-  <si>
-    <t>0324-8321</t>
-  </si>
-  <si>
-    <t>2872498-7</t>
-  </si>
-  <si>
-    <t>1.1969-tom 47 (2015)</t>
-  </si>
-  <si>
-    <t>430639-9</t>
-  </si>
-  <si>
-    <t>Geodezija, kartografija, zemeustrojstvo</t>
-  </si>
-  <si>
-    <t>Sofija</t>
-  </si>
-  <si>
-    <t>bul</t>
-  </si>
-  <si>
-    <t>0324-1610</t>
-  </si>
-  <si>
-    <t>1.1961 -</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>48084-8</t>
-  </si>
-  <si>
-    <t>Indian cartographer</t>
-  </si>
-  <si>
-    <t>INCA</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>1.1980 - 20.2000; 22.2002 -</t>
-  </si>
-  <si>
-    <t>433193-X</t>
-  </si>
-  <si>
-    <t>Bollettino della Associazione Italiana di Cartografia</t>
-  </si>
-  <si>
-    <t>Firenze</t>
-  </si>
-  <si>
-    <t>ita</t>
-  </si>
-  <si>
-    <t>0044-9733</t>
-  </si>
-  <si>
-    <t>910;550</t>
-  </si>
-  <si>
-    <t>Nr. 1.1964 - 92.1994; Anno 32.1985 - 50.2013 = Nr. 93-149; 150.2014 - 153.2015; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>438314-X</t>
-  </si>
-  <si>
-    <t>The Globe</t>
-  </si>
-  <si>
-    <t>Canberra</t>
-  </si>
-  <si>
-    <t>0311-3930</t>
-  </si>
-  <si>
-    <t>Nr. 1.1974 -</t>
-  </si>
-  <si>
-    <t>56440-0</t>
-  </si>
-  <si>
-    <t>Geocarto international</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>1010-6049</t>
-  </si>
-  <si>
-    <t>14,1;14;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1986 -</t>
-  </si>
-  <si>
-    <t>1132110-6</t>
-  </si>
-  <si>
-    <t>Cartographic perspectives</t>
-  </si>
-  <si>
-    <t>NACIS</t>
-  </si>
-  <si>
-    <t>Milwaukee, Wis.</t>
-  </si>
-  <si>
-    <t>1048-9053</t>
-  </si>
-  <si>
-    <t>7,26;14,1;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>Nr. 1.1989 - 82.2015</t>
-  </si>
-  <si>
-    <t>447920-8</t>
-  </si>
-  <si>
-    <t>Indian surveyor</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>0970-3470</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>1059309-3</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 12.1971 - 33/34.1990/91; 1991,Juli; 40.1992 - 67.2013 = Nr. 69-112; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1148989-3</t>
-  </si>
-  <si>
-    <t>Rivista di topografia antica</t>
-  </si>
-  <si>
-    <t>Congedo</t>
-  </si>
-  <si>
-    <t>Galatina</t>
-  </si>
-  <si>
-    <t>ita;eng</t>
-  </si>
-  <si>
-    <t>1121-5275</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>6,14;6,12;14,1;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>1.1991(1992) -</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>12;16;19;21;24;824;F 36</t>
-  </si>
-  <si>
-    <t>128428-9</t>
-  </si>
-  <si>
-    <t>b;ra</t>
-  </si>
-  <si>
-    <t>Bibliographia cartographica</t>
-  </si>
-  <si>
-    <t>de @Gruyter Saur</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>0340-0409</t>
-  </si>
-  <si>
-    <t>550;914.3</t>
-  </si>
-  <si>
-    <t>2463569-8</t>
-  </si>
-  <si>
-    <t>1080-7</t>
-  </si>
-  <si>
-    <t>1.1974(1975) - 31.2004(2005); 32.2005(2009) - 34.2007(2012)</t>
-  </si>
-  <si>
-    <t>880137-X</t>
-  </si>
-  <si>
-    <t>Geodezja i kartografia</t>
-  </si>
-  <si>
-    <t>Wydawn. CBK PAN</t>
-  </si>
-  <si>
-    <t>pol</t>
-  </si>
-  <si>
-    <t>0016-7134</t>
-  </si>
-  <si>
-    <t>2558225-2</t>
-  </si>
-  <si>
-    <t>1.1952 - 58.2009,1</t>
-  </si>
-  <si>
-    <t>880183-6</t>
-  </si>
-  <si>
-    <t>b;sm</t>
-  </si>
-  <si>
-    <t>Kartografičeskaja letopisʹ</t>
-  </si>
-  <si>
-    <t>Izdat. Vsesojuznoj Knižnoj Palaty</t>
-  </si>
-  <si>
-    <t>Moskva</t>
-  </si>
-  <si>
-    <t>rus</t>
-  </si>
-  <si>
-    <t>0130-2086</t>
-  </si>
-  <si>
-    <t>010;550</t>
-  </si>
-  <si>
-    <t>2852736-7</t>
-  </si>
-  <si>
-    <t>1 (1931)- 8 (1938) ; 1939-2014</t>
-  </si>
-  <si>
-    <t>881125-8</t>
-  </si>
-  <si>
-    <t>Geodézia és kartográfia</t>
-  </si>
-  <si>
-    <t>Kartográfiai Vállalat</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>0016-7118</t>
-  </si>
-  <si>
-    <t>881124-6</t>
-  </si>
-  <si>
-    <t>7.1955 -</t>
-  </si>
-  <si>
-    <t>1174761-4</t>
-  </si>
-  <si>
-    <t>Geomatica</t>
-  </si>
-  <si>
-    <t>Inst.</t>
-  </si>
-  <si>
-    <t>Ottawa</t>
-  </si>
-  <si>
-    <t>1195-1036</t>
-  </si>
-  <si>
-    <t>246804-9</t>
-  </si>
-  <si>
-    <t>47.1993 -</t>
-  </si>
-  <si>
-    <t>897</t>
+    <t>89;897</t>
   </si>
   <si>
     <t>1175075-3</t>
@@ -874,6 +874,9 @@
     <t>Nr. 1.1990-Nr. 63 (2021) ; damit Erscheinen eingestellt</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>240180-0</t>
   </si>
   <si>
@@ -898,10 +901,10 @@
     <t>1.1889/90; 2.1890 - 55.1943,7/8; [57.]1950 - [68.]1961; 69.1962 -</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3/4;17/2;M 347;210;28;31;45;46;83;90;105;898;386;468;551;Wim 2;897;519;634;949;Bm 40;A 96;520;60;L 189;1373;Kob 2;H 2</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3/4;7;17/2;M 347;210;28;31;45;46;83;89;90;105;898;386;468;551;Wim 2;897;519;634;949;Bm 40;A 96;520;60;L 189;1373;Kob 2;960/1;H 2</t>
   </si>
   <si>
     <t>259875-9</t>
@@ -1363,6 +1366,9 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2458572;http://www.ubvu.vu.nl/lists/docs/aanwinstenlijsten/aanwinstenindex.html</t>
   </si>
   <si>
+    <t>547</t>
+  </si>
+  <si>
     <t>datacarrier</t>
   </si>
   <si>
@@ -1822,10 +1828,10 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2131358;https://www.tandfonline.com/loi/rimu20;https://www.ingentaconnect.com/content/routledg/rimu;http://www.maphistory.info/imago.html;https://www.jstor.org/journal/imagomundi</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>3;4;7;8;9;12;14;15;15/292;16;Ds 114;18;M 347;210;19;M 352;863;862;20;21;23;24;25;Frei 129;Frei 160;26;27;28;29;946;31;43;83;84;89;90;91;93;100;105;Mh 39;180;289;291;Sa 18;352;355;384;859;70;473;517;547;703;705;824;573;Hil 2;Ma 9;Lün 4;Ch 1;Gla 1;Pl 11;D 161;Rs 1;Bn 3;L 229;Brt 1;Wim 2;Bre 14;546;Lg 1;634;Rt 2;944;520;Zwi 2;706;L 189;F 197;1373;523;751;Re 13;840;Zi 4</t>
+    <t>87</t>
+  </si>
+  <si>
+    <t>3;4;7;8;9;12;14;15;15/292;16;Ds 114;18;M 347;210;19;M 352;863;862;20;21;23;24;25;Frei 129;Frei 160;26;27;28;29;946;31;43;Bv 3;83;84;89;90;91;93;100;105;Mh 39;180;289;291;Sa 18;352;355;384;859;70;473;517;547;703;705;824;573;Hil 2;Ma 9;Lün 4;Ch 1;Gla 1;Pl 11;D 161;Rs 1;Bn 3;L 229;Brt 1;Wim 2;Bre 14;546;Lg 1;634;Rt 2;944;520;Zwi 2;706;L 189;F 197;1373;523;751;Re 13;840;Zi 4</t>
   </si>
   <si>
     <t>2211469-5</t>
@@ -2113,9 +2119,6 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2157098;https://www.tandfonline.com/loi/wmgl20</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>3;4;9;12;14;18;19;20;21;Frei 129;946;84;89;100;180;291;352;517;705;Ma 9;Ma 14;Lün 4;Wim 2;546;634;Rt 2;944;706;F 197;1373;840</t>
   </si>
   <si>
@@ -2408,9 +2411,6 @@
   </si>
   <si>
     <t>fre;eng</t>
-  </si>
-  <si>
-    <t>520</t>
   </si>
   <si>
     <t>1999 [?]-</t>
@@ -3427,15 +3427,15 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" t="s">
         <v>89</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -3444,70 +3444,70 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>71</v>
       </c>
       <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
         <v>93</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>94</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
       </c>
       <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>95</v>
       </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" t="s">
         <v>96</v>
-      </c>
-      <c r="S9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -4274,30 +4274,30 @@
         <v>32</v>
       </c>
       <c r="X19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y19" t="s">
         <v>168</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
         <v>171</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>172</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>173</v>
-      </c>
-      <c r="F20" t="s">
-        <v>174</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -4306,10 +4306,10 @@
         <v>32</v>
       </c>
       <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
         <v>175</v>
-      </c>
-      <c r="J20" t="s">
-        <v>176</v>
       </c>
       <c r="K20" t="s">
         <v>35</v>
@@ -4327,13 +4327,13 @@
         <v>32</v>
       </c>
       <c r="P20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q20" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>178</v>
-      </c>
-      <c r="R20" t="s">
-        <v>179</v>
       </c>
       <c r="S20" t="s">
         <v>32</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -4368,22 +4368,22 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" t="s">
         <v>181</v>
-      </c>
-      <c r="E21" t="s">
-        <v>182</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
       </c>
       <c r="G21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
         <v>183</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>184</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
@@ -4404,13 +4404,13 @@
         <v>32</v>
       </c>
       <c r="P21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
         <v>185</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" t="s">
-        <v>186</v>
       </c>
       <c r="S21" t="s">
         <v>32</v>
@@ -4436,34 +4436,34 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" t="s">
         <v>188</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>189</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>190</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>191</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
         <v>192</v>
       </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>193</v>
-      </c>
-      <c r="J22" t="s">
-        <v>194</v>
       </c>
       <c r="K22" t="s">
         <v>35</v>
@@ -4481,13 +4481,13 @@
         <v>32</v>
       </c>
       <c r="P22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
         <v>195</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" t="s">
-        <v>196</v>
       </c>
       <c r="S22" t="s">
         <v>32</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -4522,22 +4522,22 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" t="s">
         <v>198</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>199</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
         <v>200</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>201</v>
       </c>
       <c r="J23" t="s">
         <v>48</v>
@@ -4561,10 +4561,10 @@
         <v>32</v>
       </c>
       <c r="Q23" t="s">
+        <v>201</v>
+      </c>
+      <c r="R23" t="s">
         <v>202</v>
-      </c>
-      <c r="R23" t="s">
-        <v>203</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -4579,18 +4579,18 @@
         <v>38</v>
       </c>
       <c r="W23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -4599,13 +4599,13 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" t="s">
         <v>205</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>206</v>
-      </c>
-      <c r="F24" t="s">
-        <v>207</v>
       </c>
       <c r="G24" t="s">
         <v>79</v>
@@ -4614,7 +4614,7 @@
         <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
@@ -4638,28 +4638,28 @@
         <v>32</v>
       </c>
       <c r="Q24" t="s">
+        <v>208</v>
+      </c>
+      <c r="R24" t="s">
         <v>209</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W24" t="s">
+        <v>32</v>
+      </c>
+      <c r="X24" t="s">
         <v>210</v>
-      </c>
-      <c r="S24" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" t="s">
-        <v>32</v>
-      </c>
-      <c r="U24" t="s">
-        <v>32</v>
-      </c>
-      <c r="V24" t="s">
-        <v>32</v>
-      </c>
-      <c r="W24" t="s">
-        <v>32</v>
-      </c>
-      <c r="X24" t="s">
-        <v>37</v>
       </c>
       <c r="Y24" t="s">
         <v>211</v>
@@ -4759,10 +4759,10 @@
         <v>71</v>
       </c>
       <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
         <v>191</v>
-      </c>
-      <c r="G26" t="s">
-        <v>192</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
@@ -4890,10 +4890,10 @@
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Y27" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -5044,10 +5044,10 @@
         <v>32</v>
       </c>
       <c r="X29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y29" t="s">
         <v>89</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -5520,7 +5520,7 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
         <v>281</v>
@@ -5583,30 +5583,30 @@
         <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -5615,13 +5615,13 @@
         <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
@@ -5639,10 +5639,10 @@
         <v>32</v>
       </c>
       <c r="Q37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S37" t="s">
         <v>32</v>
@@ -5660,27 +5660,27 @@
         <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F38" t="s">
         <v>100</v>
@@ -5692,7 +5692,7 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
@@ -5719,7 +5719,7 @@
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S38" t="s">
         <v>32</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -5754,13 +5754,13 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -5769,7 +5769,7 @@
         <v>32</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
@@ -5793,10 +5793,10 @@
         <v>32</v>
       </c>
       <c r="Q39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -5831,13 +5831,13 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -5846,7 +5846,7 @@
         <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -5873,7 +5873,7 @@
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S40" t="s">
         <v>32</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -5908,13 +5908,13 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -5923,7 +5923,7 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
@@ -5950,7 +5950,7 @@
         <v>32</v>
       </c>
       <c r="R41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S41" t="s">
         <v>32</v>
@@ -5976,22 +5976,22 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E42" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G42" t="s">
         <v>79</v>
@@ -6000,10 +6000,10 @@
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J42" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K42" t="s">
         <v>35</v>
@@ -6027,10 +6027,10 @@
         <v>32</v>
       </c>
       <c r="R42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T42" t="s">
         <v>32</v>
@@ -6045,15 +6045,15 @@
         <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -6062,22 +6062,22 @@
         <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E43" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F43" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
@@ -6098,13 +6098,13 @@
         <v>32</v>
       </c>
       <c r="P43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q43" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S43" t="s">
         <v>32</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -6139,13 +6139,13 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
         <v>79</v>
@@ -6154,10 +6154,10 @@
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K44" t="s">
         <v>35</v>
@@ -6181,7 +6181,7 @@
         <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S44" t="s">
         <v>32</v>
@@ -6207,22 +6207,22 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C45" t="s">
         <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
         <v>79</v>
@@ -6258,10 +6258,10 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T45" t="s">
         <v>32</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -6293,13 +6293,13 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -6308,7 +6308,7 @@
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J46" t="s">
         <v>155</v>
@@ -6317,7 +6317,7 @@
         <v>35</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s">
         <v>32</v>
@@ -6335,7 +6335,7 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S46" t="s">
         <v>32</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -6370,13 +6370,13 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
         <v>79</v>
@@ -6385,7 +6385,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
         <v>48</v>
@@ -6412,7 +6412,7 @@
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S47" t="s">
         <v>32</v>
@@ -6430,30 +6430,30 @@
         <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="Y47" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E48" t="s">
         <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G48" t="s">
         <v>79</v>
@@ -6489,7 +6489,7 @@
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S48" t="s">
         <v>32</v>
@@ -6515,22 +6515,22 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E49" t="s">
         <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G49" t="s">
         <v>79</v>
@@ -6566,13 +6566,13 @@
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S49" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T49" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U49" t="s">
         <v>32</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -6601,13 +6601,13 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E50" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -6640,10 +6640,10 @@
         <v>32</v>
       </c>
       <c r="Q50" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S50" t="s">
         <v>32</v>
@@ -6669,22 +6669,22 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C51" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D51" t="s">
         <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F51" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
@@ -6723,10 +6723,10 @@
         <v>74</v>
       </c>
       <c r="S51" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T51" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U51" t="s">
         <v>32</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -6773,7 +6773,7 @@
         <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K52" t="s">
         <v>35</v>
@@ -6800,10 +6800,10 @@
         <v>285</v>
       </c>
       <c r="S52" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="U52" t="s">
         <v>32</v>
@@ -6823,22 +6823,22 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G53" t="s">
         <v>101</v>
@@ -6847,7 +6847,7 @@
         <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -6874,7 +6874,7 @@
         <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S53" t="s">
         <v>32</v>
@@ -6900,22 +6900,22 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E54" t="s">
         <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G54" t="s">
         <v>101</v>
@@ -6924,7 +6924,7 @@
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J54" t="s">
         <v>58</v>
@@ -6951,10 +6951,10 @@
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S54" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T54" t="s">
         <v>32</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -6989,10 +6989,10 @@
         <v>234</v>
       </c>
       <c r="E55" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F55" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G55" t="s">
         <v>79</v>
@@ -7001,13 +7001,13 @@
         <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J55" t="s">
         <v>238</v>
       </c>
       <c r="K55" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s">
         <v>32</v>
@@ -7031,7 +7031,7 @@
         <v>88</v>
       </c>
       <c r="S55" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="T55" t="s">
         <v>32</v>
@@ -7046,15 +7046,15 @@
         <v>32</v>
       </c>
       <c r="X55" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Y55" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -7063,22 +7063,22 @@
         <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E56" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F56" t="s">
         <v>109</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H56" t="s">
         <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
@@ -7105,7 +7105,7 @@
         <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S56" t="s">
         <v>32</v>
@@ -7131,22 +7131,22 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E57" t="s">
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G57" t="s">
         <v>101</v>
@@ -7182,13 +7182,13 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S57" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U57" t="s">
         <v>32</v>
@@ -7200,30 +7200,30 @@
         <v>32</v>
       </c>
       <c r="X57" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E58" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -7232,10 +7232,10 @@
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K58" t="s">
         <v>35</v>
@@ -7259,13 +7259,13 @@
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="S58" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T58" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U58" t="s">
         <v>32</v>
@@ -7277,30 +7277,30 @@
         <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E59" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F59" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -7309,10 +7309,10 @@
         <v>32</v>
       </c>
       <c r="I59" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J59" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K59" t="s">
         <v>35</v>
@@ -7336,13 +7336,13 @@
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S59" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T59" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U59" t="s">
         <v>32</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -7371,10 +7371,10 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E60" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F60" t="s">
         <v>56</v>
@@ -7386,7 +7386,7 @@
         <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J60" t="s">
         <v>48</v>
@@ -7407,13 +7407,13 @@
         <v>32</v>
       </c>
       <c r="P60" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q60" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R60" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S60" t="s">
         <v>32</v>
@@ -7439,25 +7439,25 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E61" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F61" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G61" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
@@ -7487,16 +7487,16 @@
         <v>32</v>
       </c>
       <c r="Q61" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R61" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S61" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U61" t="s">
         <v>32</v>
@@ -7508,10 +7508,10 @@
         <v>32</v>
       </c>
       <c r="X61" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Y61" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -7519,19 +7519,19 @@
         <v>259</v>
       </c>
       <c r="B62" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E62" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F62" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G62" t="s">
         <v>79</v>
@@ -7561,13 +7561,13 @@
         <v>32</v>
       </c>
       <c r="P62" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q62" t="s">
         <v>254</v>
       </c>
       <c r="R62" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="S62" t="s">
         <v>32</v>
@@ -7593,22 +7593,22 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" t="s">
         <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -7620,7 +7620,7 @@
         <v>32</v>
       </c>
       <c r="J63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K63" t="s">
         <v>35</v>
@@ -7641,16 +7641,16 @@
         <v>32</v>
       </c>
       <c r="Q63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R63" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="S63" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="T63" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U63" t="s">
         <v>32</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -7679,13 +7679,13 @@
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E64" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F64" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -7715,13 +7715,13 @@
         <v>32</v>
       </c>
       <c r="P64" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q64" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="R64" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="S64" t="s">
         <v>32</v>
@@ -7747,22 +7747,22 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E65" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F65" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G65" t="s">
         <v>79</v>
@@ -7771,7 +7771,7 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
@@ -7798,13 +7798,13 @@
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="S65" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="T65" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U65" t="s">
         <v>32</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -7833,13 +7833,13 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E66" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F66" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G66" t="s">
         <v>79</v>
@@ -7848,7 +7848,7 @@
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J66" t="s">
         <v>48</v>
@@ -7872,10 +7872,10 @@
         <v>32</v>
       </c>
       <c r="Q66" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="R66" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S66" t="s">
         <v>32</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -7910,13 +7910,13 @@
         <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F67" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -7925,7 +7925,7 @@
         <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
@@ -7952,7 +7952,7 @@
         <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="S67" t="s">
         <v>32</v>
@@ -7970,15 +7970,15 @@
         <v>32</v>
       </c>
       <c r="X67" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="Y67" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -7987,13 +7987,13 @@
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E68" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F68" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -8002,13 +8002,13 @@
         <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J68" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K68" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L68" t="s">
         <v>32</v>
@@ -8029,7 +8029,7 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="S68" t="s">
         <v>32</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -8064,13 +8064,13 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E69" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F69" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G69" t="s">
         <v>79</v>
@@ -8082,7 +8082,7 @@
         <v>32</v>
       </c>
       <c r="J69" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K69" t="s">
         <v>35</v>
@@ -8106,7 +8106,7 @@
         <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="S69" t="s">
         <v>32</v>
@@ -8132,10 +8132,10 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -8147,7 +8147,7 @@
         <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -8156,10 +8156,10 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J70" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K70" t="s">
         <v>35</v>
@@ -8183,10 +8183,10 @@
         <v>32</v>
       </c>
       <c r="R70" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="S70" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="T70" t="s">
         <v>32</v>
@@ -8201,30 +8201,30 @@
         <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y70" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E71" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F71" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G71" t="s">
         <v>79</v>
@@ -8233,7 +8233,7 @@
         <v>32</v>
       </c>
       <c r="I71" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J71" t="s">
         <v>48</v>
@@ -8254,19 +8254,19 @@
         <v>32</v>
       </c>
       <c r="P71" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q71" t="s">
         <v>32</v>
       </c>
       <c r="R71" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="S71" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="T71" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U71" t="s">
         <v>32</v>
@@ -8281,12 +8281,12 @@
         <v>37</v>
       </c>
       <c r="Y71" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -8295,13 +8295,13 @@
         <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E72" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F72" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -8310,7 +8310,7 @@
         <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J72" t="s">
         <v>48</v>
@@ -8334,10 +8334,10 @@
         <v>32</v>
       </c>
       <c r="Q72" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="R72" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="S72" t="s">
         <v>32</v>
@@ -8363,10 +8363,10 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B73" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -8378,7 +8378,7 @@
         <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G73" t="s">
         <v>79</v>
@@ -8387,7 +8387,7 @@
         <v>32</v>
       </c>
       <c r="I73" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
@@ -8414,13 +8414,13 @@
         <v>32</v>
       </c>
       <c r="R73" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="S73" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="T73" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U73" t="s">
         <v>32</v>
@@ -8432,15 +8432,15 @@
         <v>32</v>
       </c>
       <c r="X73" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Y73" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -8449,13 +8449,13 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F74" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -8491,7 +8491,7 @@
         <v>32</v>
       </c>
       <c r="R74" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S74" t="s">
         <v>32</v>
@@ -8517,16 +8517,16 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E75" t="s">
         <v>29</v>
@@ -8541,7 +8541,7 @@
         <v>32</v>
       </c>
       <c r="I75" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J75" t="s">
         <v>131</v>
@@ -8565,13 +8565,13 @@
         <v>32</v>
       </c>
       <c r="Q75" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="R75" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="S75" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="T75" t="s">
         <v>32</v>
@@ -8586,18 +8586,18 @@
         <v>32</v>
       </c>
       <c r="X75" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Y75" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -8606,10 +8606,10 @@
         <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F76" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G76" t="s">
         <v>79</v>
@@ -8618,7 +8618,7 @@
         <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J76" t="s">
         <v>48</v>
@@ -8648,7 +8648,7 @@
         <v>88</v>
       </c>
       <c r="S76" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="T76" t="s">
         <v>32</v>
@@ -8663,39 +8663,39 @@
         <v>32</v>
       </c>
       <c r="X76" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Y76" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E77" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F77" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G77" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H77" t="s">
         <v>32</v>
       </c>
       <c r="I77" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J77" t="s">
         <v>48</v>
@@ -8716,16 +8716,16 @@
         <v>32</v>
       </c>
       <c r="P77" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q77" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="R77" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="S77" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="T77" t="s">
         <v>32</v>
@@ -8740,15 +8740,15 @@
         <v>32</v>
       </c>
       <c r="X77" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Y77" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -8757,13 +8757,13 @@
         <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E78" t="s">
         <v>71</v>
       </c>
       <c r="F78" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G78" t="s">
         <v>32</v>
@@ -8799,7 +8799,7 @@
         <v>32</v>
       </c>
       <c r="R78" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="S78" t="s">
         <v>32</v>
@@ -8820,12 +8820,12 @@
         <v>37</v>
       </c>
       <c r="Y78" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -8834,7 +8834,7 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E79" t="s">
         <v>71</v>
@@ -8849,7 +8849,7 @@
         <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J79" t="s">
         <v>58</v>
@@ -8876,7 +8876,7 @@
         <v>32</v>
       </c>
       <c r="R79" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="S79" t="s">
         <v>32</v>
@@ -8902,22 +8902,22 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G80" t="s">
         <v>79</v>
@@ -8926,7 +8926,7 @@
         <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J80" t="s">
         <v>48</v>
@@ -8947,16 +8947,16 @@
         <v>32</v>
       </c>
       <c r="P80" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="Q80" t="s">
         <v>32</v>
       </c>
       <c r="R80" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="S80" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="T80" t="s">
         <v>32</v>
@@ -8971,15 +8971,15 @@
         <v>32</v>
       </c>
       <c r="X80" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="Y80" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -8988,13 +8988,13 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E81" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F81" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -9006,7 +9006,7 @@
         <v>32</v>
       </c>
       <c r="J81" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K81" t="s">
         <v>35</v>
@@ -9030,7 +9030,7 @@
         <v>32</v>
       </c>
       <c r="R81" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="S81" t="s">
         <v>32</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -9065,13 +9065,13 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F82" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G82" t="s">
         <v>73</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J82" t="s">
         <v>48</v>
@@ -9107,7 +9107,7 @@
         <v>32</v>
       </c>
       <c r="R82" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="S82" t="s">
         <v>32</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -9142,22 +9142,22 @@
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E83" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F83" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G83" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H83" t="s">
         <v>32</v>
       </c>
       <c r="I83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
@@ -9181,10 +9181,10 @@
         <v>32</v>
       </c>
       <c r="Q83" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="R83" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="S83" t="s">
         <v>32</v>
@@ -9202,30 +9202,30 @@
         <v>32</v>
       </c>
       <c r="X83" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="Y83" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B84" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E84" t="s">
         <v>71</v>
       </c>
       <c r="F84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G84" t="s">
         <v>225</v>
@@ -9234,7 +9234,7 @@
         <v>32</v>
       </c>
       <c r="I84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
@@ -9261,13 +9261,13 @@
         <v>32</v>
       </c>
       <c r="R84" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="S84" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="T84" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U84" t="s">
         <v>32</v>
@@ -9279,15 +9279,15 @@
         <v>32</v>
       </c>
       <c r="X84" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Y84" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -9296,22 +9296,22 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E85" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F85" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G85" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H85" t="s">
         <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
@@ -9338,7 +9338,7 @@
         <v>32</v>
       </c>
       <c r="R85" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="S85" t="s">
         <v>32</v>
@@ -9364,22 +9364,22 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B86" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C86" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D86" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E86" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F86" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G86" t="s">
         <v>79</v>
@@ -9388,13 +9388,13 @@
         <v>32</v>
       </c>
       <c r="I86" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J86" t="s">
         <v>34</v>
       </c>
       <c r="K86" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L86" t="s">
         <v>32</v>
@@ -9415,10 +9415,10 @@
         <v>32</v>
       </c>
       <c r="R86" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="S86" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="T86" t="s">
         <v>32</v>
@@ -9433,30 +9433,30 @@
         <v>32</v>
       </c>
       <c r="X86" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="Y86" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E87" t="s">
         <v>71</v>
       </c>
       <c r="F87" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G87" t="s">
         <v>79</v>
@@ -9465,10 +9465,10 @@
         <v>32</v>
       </c>
       <c r="I87" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="J87" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K87" t="s">
         <v>35</v>
@@ -9492,13 +9492,13 @@
         <v>32</v>
       </c>
       <c r="R87" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="S87" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="T87" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="U87" t="s">
         <v>32</v>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -9527,13 +9527,13 @@
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E88" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F88" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G88" t="s">
         <v>79</v>
@@ -9542,7 +9542,7 @@
         <v>32</v>
       </c>
       <c r="I88" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="J88" t="s">
         <v>48</v>
@@ -9569,7 +9569,7 @@
         <v>32</v>
       </c>
       <c r="R88" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="S88" t="s">
         <v>32</v>
@@ -9595,22 +9595,22 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E89" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -9646,13 +9646,13 @@
         <v>32</v>
       </c>
       <c r="R89" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="S89" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="T89" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U89" t="s">
         <v>32</v>
@@ -9672,22 +9672,22 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E90" t="s">
         <v>71</v>
       </c>
       <c r="F90" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G90" t="s">
         <v>79</v>
@@ -9696,7 +9696,7 @@
         <v>32</v>
       </c>
       <c r="I90" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="J90" t="s">
         <v>48</v>
@@ -9723,13 +9723,13 @@
         <v>32</v>
       </c>
       <c r="R90" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="S90" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="T90" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U90" t="s">
         <v>32</v>
@@ -9741,30 +9741,30 @@
         <v>32</v>
       </c>
       <c r="X90" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="Y90" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E91" t="s">
         <v>71</v>
       </c>
       <c r="F91" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G91" t="s">
         <v>79</v>
@@ -9800,13 +9800,13 @@
         <v>32</v>
       </c>
       <c r="R91" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="S91" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="T91" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U91" t="s">
         <v>32</v>
@@ -9818,18 +9818,18 @@
         <v>32</v>
       </c>
       <c r="X91" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Y91" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B92" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -9844,7 +9844,7 @@
         <v>56</v>
       </c>
       <c r="G92" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H92" t="s">
         <v>32</v>
@@ -9877,13 +9877,13 @@
         <v>32</v>
       </c>
       <c r="R92" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="S92" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="T92" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U92" t="s">
         <v>32</v>
@@ -9895,39 +9895,39 @@
         <v>32</v>
       </c>
       <c r="X92" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Y92" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E93" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F93" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G93" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H93" t="s">
         <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J93" t="s">
         <v>131</v>
@@ -9954,13 +9954,13 @@
         <v>32</v>
       </c>
       <c r="R93" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="S93" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="T93" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U93" t="s">
         <v>32</v>
@@ -9980,31 +9980,31 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E94" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F94" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G94" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
       </c>
       <c r="I94" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J94" t="s">
         <v>48</v>
@@ -10028,13 +10028,13 @@
         <v>32</v>
       </c>
       <c r="Q94" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="R94" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="S94" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="T94" t="s">
         <v>32</v>
@@ -10057,10 +10057,10 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B95" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -10075,7 +10075,7 @@
         <v>269</v>
       </c>
       <c r="G95" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H95" t="s">
         <v>32</v>
@@ -10111,10 +10111,10 @@
         <v>216</v>
       </c>
       <c r="S95" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="T95" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U95" t="s">
         <v>32</v>
@@ -10126,33 +10126,33 @@
         <v>32</v>
       </c>
       <c r="X95" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Y95" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E96" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F96" t="s">
         <v>56</v>
       </c>
       <c r="G96" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H96" t="s">
         <v>32</v>
@@ -10185,10 +10185,10 @@
         <v>32</v>
       </c>
       <c r="R96" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="S96" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="T96" t="s">
         <v>32</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -10220,13 +10220,13 @@
         <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E97" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F97" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G97" t="s">
         <v>32</v>
@@ -10235,7 +10235,7 @@
         <v>32</v>
       </c>
       <c r="I97" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J97" t="s">
         <v>48</v>
@@ -10262,7 +10262,7 @@
         <v>32</v>
       </c>
       <c r="R97" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="S97" t="s">
         <v>32</v>
@@ -10288,7 +10288,7 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
@@ -10297,13 +10297,13 @@
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E98" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F98" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G98" t="s">
         <v>79</v>
@@ -10312,7 +10312,7 @@
         <v>32</v>
       </c>
       <c r="I98" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J98" t="s">
         <v>48</v>
@@ -10339,7 +10339,7 @@
         <v>32</v>
       </c>
       <c r="R98" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="S98" t="s">
         <v>32</v>
@@ -10365,16 +10365,16 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B99" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" t="s">
         <v>71</v>
@@ -10416,13 +10416,13 @@
         <v>32</v>
       </c>
       <c r="R99" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="S99" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="T99" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U99" t="s">
         <v>32</v>
@@ -10434,30 +10434,30 @@
         <v>32</v>
       </c>
       <c r="X99" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Y99" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B100" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E100" t="s">
         <v>71</v>
       </c>
       <c r="F100" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G100" t="s">
         <v>79</v>
@@ -10493,13 +10493,13 @@
         <v>32</v>
       </c>
       <c r="R100" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="S100" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="T100" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U100" t="s">
         <v>32</v>
@@ -10511,15 +10511,15 @@
         <v>32</v>
       </c>
       <c r="X100" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="Y100" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -10528,13 +10528,13 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E101" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F101" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G101" t="s">
         <v>79</v>
@@ -10543,13 +10543,13 @@
         <v>32</v>
       </c>
       <c r="I101" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="J101" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K101" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L101" t="s">
         <v>32</v>
@@ -10570,7 +10570,7 @@
         <v>32</v>
       </c>
       <c r="R101" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="S101" t="s">
         <v>32</v>
@@ -10591,27 +10591,27 @@
         <v>37</v>
       </c>
       <c r="Y101" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B102" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E102" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F102" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G102" t="s">
         <v>79</v>
@@ -10620,7 +10620,7 @@
         <v>32</v>
       </c>
       <c r="I102" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="J102" t="s">
         <v>131</v>
@@ -10647,13 +10647,13 @@
         <v>32</v>
       </c>
       <c r="R102" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="S102" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="T102" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U102" t="s">
         <v>32</v>
@@ -10665,15 +10665,15 @@
         <v>32</v>
       </c>
       <c r="X102" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="Y102" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
@@ -10682,16 +10682,16 @@
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E103" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F103" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G103" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H103" t="s">
         <v>32</v>
@@ -10718,13 +10718,13 @@
         <v>32</v>
       </c>
       <c r="P103" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="Q103" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="R103" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="S103" t="s">
         <v>32</v>
@@ -10750,22 +10750,22 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B104" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E104" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F104" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G104" t="s">
         <v>79</v>
@@ -10774,10 +10774,10 @@
         <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J104" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K104" t="s">
         <v>35</v>
@@ -10801,10 +10801,10 @@
         <v>32</v>
       </c>
       <c r="R104" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="S104" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="T104" t="s">
         <v>32</v>
@@ -10819,15 +10819,15 @@
         <v>32</v>
       </c>
       <c r="X104" t="s">
-        <v>699</v>
+        <v>295</v>
       </c>
       <c r="Y104" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -10836,22 +10836,22 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E105" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F105" t="s">
         <v>109</v>
       </c>
       <c r="G105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H105" t="s">
         <v>32</v>
       </c>
       <c r="I105" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J105" t="s">
         <v>48</v>
@@ -10860,7 +10860,7 @@
         <v>35</v>
       </c>
       <c r="L105" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M105" t="s">
         <v>32</v>
@@ -10872,13 +10872,13 @@
         <v>32</v>
       </c>
       <c r="P105" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q105" t="s">
         <v>32</v>
       </c>
       <c r="R105" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="S105" t="s">
         <v>32</v>
@@ -10904,31 +10904,31 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B106" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E106" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F106" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G106" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H106" t="s">
         <v>32</v>
       </c>
       <c r="I106" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J106" t="s">
         <v>48</v>
@@ -10955,13 +10955,13 @@
         <v>32</v>
       </c>
       <c r="R106" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="S106" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T106" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U106" t="s">
         <v>32</v>
@@ -10973,10 +10973,10 @@
         <v>32</v>
       </c>
       <c r="X106" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Y106" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="107" spans="1:25">
@@ -10990,13 +10990,13 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E107" t="s">
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G107" t="s">
         <v>79</v>
@@ -11005,10 +11005,10 @@
         <v>32</v>
       </c>
       <c r="I107" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J107" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K107" t="s">
         <v>35</v>
@@ -11029,10 +11029,10 @@
         <v>32</v>
       </c>
       <c r="Q107" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="R107" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="S107" t="s">
         <v>32</v>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -11067,16 +11067,16 @@
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E108" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F108" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G108" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H108" t="s">
         <v>32</v>
@@ -11103,13 +11103,13 @@
         <v>32</v>
       </c>
       <c r="P108" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Q108" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="R108" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="S108" t="s">
         <v>32</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
@@ -11144,13 +11144,13 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E109" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F109" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G109" t="s">
         <v>79</v>
@@ -11159,7 +11159,7 @@
         <v>32</v>
       </c>
       <c r="I109" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J109" t="s">
         <v>48</v>
@@ -11180,13 +11180,13 @@
         <v>32</v>
       </c>
       <c r="P109" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Q109" t="s">
         <v>32</v>
       </c>
       <c r="R109" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="S109" t="s">
         <v>32</v>
@@ -11212,10 +11212,10 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B110" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -11263,13 +11263,13 @@
         <v>32</v>
       </c>
       <c r="R110" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="S110" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T110" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U110" t="s">
         <v>32</v>
@@ -11281,15 +11281,15 @@
         <v>32</v>
       </c>
       <c r="X110" t="s">
-        <v>699</v>
+        <v>295</v>
       </c>
       <c r="Y110" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B111" t="s">
         <v>26</v>
@@ -11298,13 +11298,13 @@
         <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E111" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F111" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G111" t="s">
         <v>79</v>
@@ -11313,7 +11313,7 @@
         <v>32</v>
       </c>
       <c r="I111" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J111" t="s">
         <v>131</v>
@@ -11337,10 +11337,10 @@
         <v>32</v>
       </c>
       <c r="Q111" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="R111" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="S111" t="s">
         <v>32</v>
@@ -11361,12 +11361,12 @@
         <v>37</v>
       </c>
       <c r="Y111" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
@@ -11375,10 +11375,10 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E112" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F112" t="s">
         <v>128</v>
@@ -11390,13 +11390,13 @@
         <v>32</v>
       </c>
       <c r="I112" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J112" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K112" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L112" t="s">
         <v>32</v>
@@ -11417,7 +11417,7 @@
         <v>32</v>
       </c>
       <c r="R112" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="S112" t="s">
         <v>32</v>
@@ -11438,27 +11438,27 @@
         <v>37</v>
       </c>
       <c r="Y112" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B113" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E113" t="s">
         <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G113" t="s">
         <v>79</v>
@@ -11467,7 +11467,7 @@
         <v>32</v>
       </c>
       <c r="I113" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J113" t="s">
         <v>238</v>
@@ -11494,13 +11494,13 @@
         <v>32</v>
       </c>
       <c r="R113" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="S113" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="T113" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U113" t="s">
         <v>32</v>
@@ -11512,39 +11512,39 @@
         <v>32</v>
       </c>
       <c r="X113" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Y113" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B114" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E114" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F114" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G114" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H114" t="s">
         <v>32</v>
       </c>
       <c r="I114" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J114" t="s">
         <v>48</v>
@@ -11571,13 +11571,13 @@
         <v>32</v>
       </c>
       <c r="R114" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="S114" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="T114" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U114" t="s">
         <v>32</v>
@@ -11589,30 +11589,30 @@
         <v>32</v>
       </c>
       <c r="X114" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Y114" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E115" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F115" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G115" t="s">
         <v>79</v>
@@ -11621,7 +11621,7 @@
         <v>32</v>
       </c>
       <c r="I115" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
@@ -11645,16 +11645,16 @@
         <v>32</v>
       </c>
       <c r="Q115" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="R115" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="S115" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T115" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U115" t="s">
         <v>32</v>
@@ -11666,30 +11666,30 @@
         <v>32</v>
       </c>
       <c r="X115" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y115" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B116" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E116" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F116" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G116" t="s">
         <v>79</v>
@@ -11725,13 +11725,13 @@
         <v>32</v>
       </c>
       <c r="R116" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="S116" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="T116" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U116" t="s">
         <v>32</v>
@@ -11751,22 +11751,22 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B117" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E117" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F117" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G117" t="s">
         <v>46</v>
@@ -11802,13 +11802,13 @@
         <v>32</v>
       </c>
       <c r="R117" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="S117" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="T117" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U117" t="s">
         <v>32</v>
@@ -11828,31 +11828,31 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B118" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E118" t="s">
         <v>71</v>
       </c>
       <c r="F118" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G118" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H118" t="s">
         <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J118" t="s">
         <v>48</v>
@@ -11879,13 +11879,13 @@
         <v>32</v>
       </c>
       <c r="R118" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="S118" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="T118" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U118" t="s">
         <v>32</v>
@@ -11897,30 +11897,30 @@
         <v>32</v>
       </c>
       <c r="X118" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Y118" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D119" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E119" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F119" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G119" t="s">
         <v>46</v>
@@ -11932,7 +11932,7 @@
         <v>32</v>
       </c>
       <c r="J119" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="K119" t="s">
         <v>35</v>
@@ -11950,13 +11950,13 @@
         <v>32</v>
       </c>
       <c r="P119" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Q119" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="R119" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="S119" t="s">
         <v>32</v>
@@ -11982,31 +11982,31 @@
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B120" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F120" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G120" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H120" t="s">
         <v>32</v>
       </c>
       <c r="I120" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J120" t="s">
         <v>58</v>
@@ -12033,13 +12033,13 @@
         <v>32</v>
       </c>
       <c r="R120" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="S120" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="T120" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U120" t="s">
         <v>32</v>
@@ -12051,30 +12051,30 @@
         <v>32</v>
       </c>
       <c r="X120" t="s">
-        <v>699</v>
+        <v>295</v>
       </c>
       <c r="Y120" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B121" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
       </c>
       <c r="D121" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" t="s">
         <v>205</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>206</v>
-      </c>
-      <c r="F121" t="s">
-        <v>207</v>
       </c>
       <c r="G121" t="s">
         <v>79</v>
@@ -12083,7 +12083,7 @@
         <v>32</v>
       </c>
       <c r="I121" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
@@ -12110,10 +12110,10 @@
         <v>32</v>
       </c>
       <c r="R121" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="S121" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="T121" t="s">
         <v>32</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B122" t="s">
         <v>26</v>
@@ -12145,16 +12145,16 @@
         <v>27</v>
       </c>
       <c r="D122" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E122" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F122" t="s">
         <v>56</v>
       </c>
       <c r="G122" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H122" t="s">
         <v>32</v>
@@ -12163,10 +12163,10 @@
         <v>32</v>
       </c>
       <c r="J122" t="s">
-        <v>798</v>
+        <v>286</v>
       </c>
       <c r="K122" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L122" t="s">
         <v>32</v>
@@ -12216,7 +12216,7 @@
         <v>800</v>
       </c>
       <c r="B123" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -12308,7 +12308,7 @@
         <v>109</v>
       </c>
       <c r="G124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H124" t="s">
         <v>32</v>
@@ -12320,7 +12320,7 @@
         <v>809</v>
       </c>
       <c r="K124" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L124" t="s">
         <v>810</v>
@@ -12370,22 +12370,22 @@
         <v>813</v>
       </c>
       <c r="B125" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E125" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F125" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G125" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H125" t="s">
         <v>32</v>
@@ -12424,7 +12424,7 @@
         <v>815</v>
       </c>
       <c r="T125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U125" t="s">
         <v>32</v>
@@ -12447,7 +12447,7 @@
         <v>818</v>
       </c>
       <c r="B126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -12462,7 +12462,7 @@
         <v>276</v>
       </c>
       <c r="G126" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H126" t="s">
         <v>32</v>
@@ -12501,7 +12501,7 @@
         <v>820</v>
       </c>
       <c r="T126" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U126" t="s">
         <v>32</v>
@@ -12513,7 +12513,7 @@
         <v>32</v>
       </c>
       <c r="X126" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y126" t="s">
         <v>821</v>
